--- a/static/templates/Finance_Risk_Management_Plan.xlsx
+++ b/static/templates/Finance_Risk_Management_Plan.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instructions &amp; User Guide" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Risk Management Plan" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Change Management Overview" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Change Impact Assessment" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Change Activities" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28,17 +29,7 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="001F4E78"/>
       <sz val="16"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="001F4E78"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <i val="1"/>
-      <sz val="10"/>
     </font>
     <font>
       <b val="1"/>
@@ -47,10 +38,16 @@
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -59,18 +56,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E7F3FF"/>
-        <bgColor rgb="00E7F3FF"/>
+        <fgColor rgb="002F5597"/>
+        <bgColor rgb="002F5597"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
+        <fgColor rgb="00FFB3B3"/>
+        <bgColor rgb="00FFB3B3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF99"/>
+        <bgColor rgb="00FFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF6B6B"/>
+        <bgColor rgb="00FF6B6B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E6F3FF"/>
+        <bgColor rgb="00E6F3FF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -84,24 +105,65 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,141 +537,331 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="80" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>FINANCE - CORE BANKING SYSTEM MODERNIZATION</t>
+          <t>CHANGE MANAGEMENT PLAN</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Risk Management Plan</t>
+          <t>FINANCE Risk Management Plan Project</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>PMI 2025 Standards Compliant</t>
-        </is>
-      </c>
-    </row>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Generated: July 16, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>DOCUMENT OVERVIEW</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Defines risk management approach and processes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7"/>
-    <row r="8"/>
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>PROJECT INFORMATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Project Name:</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Enterprise AI/ML Implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Change Manager:</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Mark Thompson, CCMP</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>Change Methodology:</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Prosci ADKAR Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>Affected Population:</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>850 employees across 5 departments</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>KEY FEATURES</t>
+          <t>Change Complexity:</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>High - Technology and Process Change</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>• Risk identification</t>
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>Change Duration:</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>18 months (Jan 2025 - Jun 2026)</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>• Risk assessment</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>• PMI 2025 compliant</t>
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>Change Budget:</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>$180,000 (6.3% of project budget)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>CHANGE MANAGEMENT OBJECTIVES</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>HOW TO USE THIS TEMPLATE</t>
-        </is>
-      </c>
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>1. Achieve 95% user adoption of new AI/ML systems within 6 months of go-live</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
+      <c r="F15" s="6" t="n"/>
+      <c r="G15" s="6" t="n"/>
+      <c r="H15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>1. Review all tabs</t>
-        </is>
-      </c>
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2. Minimize business disruption during transition to new technology platform</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
+      <c r="F16" s="6" t="n"/>
+      <c r="G16" s="6" t="n"/>
+      <c r="H16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2. Fill in yellow cells</t>
-        </is>
-      </c>
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>3. Build organizational capability and confidence in AI/ML technologies</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="6" t="n"/>
+      <c r="F17" s="6" t="n"/>
+      <c r="G17" s="6" t="n"/>
+      <c r="H17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3. Do not modify formulas</t>
-        </is>
-      </c>
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>4. Establish sustainable change management practices for future initiatives</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
+      <c r="F18" s="6" t="n"/>
+      <c r="G18" s="6" t="n"/>
+      <c r="H18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4. Use dropdowns</t>
-        </is>
-      </c>
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>5. Ensure all affected employees receive appropriate training and support</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
+      <c r="F19" s="6" t="n"/>
+      <c r="G19" s="6" t="n"/>
+      <c r="H19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>5. Save regularly</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>6. Export to PDF</t>
-        </is>
-      </c>
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>6. Create positive stakeholder sentiment and enthusiasm for AI/ML transformation</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
+      <c r="F20" s="6" t="n"/>
+      <c r="G20" s="6" t="n"/>
+      <c r="H20" s="7" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>CHANGE MANAGEMENT STRATEGY</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>• ADKAR Model: Focus on Awareness, Desire, Knowledge, Ability, and Reinforcement</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
+      <c r="F23" s="6" t="n"/>
+      <c r="G23" s="6" t="n"/>
+      <c r="H23" s="7" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>• Stakeholder-Centric: Tailored approach based on stakeholder impact and influence</t>
+        </is>
+      </c>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
+      <c r="F24" s="6" t="n"/>
+      <c r="G24" s="6" t="n"/>
+      <c r="H24" s="7" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>• Communication-Heavy: Multi-channel communication strategy with feedback loops</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="n"/>
+      <c r="F25" s="6" t="n"/>
+      <c r="G25" s="6" t="n"/>
+      <c r="H25" s="7" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>• Training-Intensive: Comprehensive training program with hands-on practice</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
+      <c r="F26" s="6" t="n"/>
+      <c r="G26" s="6" t="n"/>
+      <c r="H26" s="7" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>• Support-Focused: Dedicated support resources during transition period</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
+      <c r="F27" s="6" t="n"/>
+      <c r="G27" s="6" t="n"/>
+      <c r="H27" s="7" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>• Measurement-Driven: Regular assessment of change readiness and adoption</t>
+        </is>
+      </c>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
+      <c r="F28" s="6" t="n"/>
+      <c r="G28" s="6" t="n"/>
+      <c r="H28" s="7" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A6:F8"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A15:F15"/>
+  <mergeCells count="18">
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A17:H17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -621,136 +873,1623 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="18" customWidth="1" min="10" max="10"/>
+    <col width="18" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>FINANCE - RISK MANAGEMENT PLAN</t>
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>CHANGE IMPACT ASSESSMENT</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>Risk_Category</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Identification_Method</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>Assessment_Frequency</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>Owner</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>Escalation_Threshold</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>Response_Strategy</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>Notes</t>
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>Stakeholder Group</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>Population</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>Change Type</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>Impact Level</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>Current State</t>
+        </is>
+      </c>
+      <c r="G3" s="9" t="inlineStr">
+        <is>
+          <t>Future State</t>
+        </is>
+      </c>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>Readiness Level</t>
+        </is>
+      </c>
+      <c r="I3" s="9" t="inlineStr">
+        <is>
+          <t>Resistance Risk</t>
+        </is>
+      </c>
+      <c r="J3" s="9" t="inlineStr">
+        <is>
+          <t>Change Champion</t>
+        </is>
+      </c>
+      <c r="K3" s="9" t="inlineStr">
+        <is>
+          <t>Support Required</t>
+        </is>
+      </c>
+      <c r="L3" s="9" t="inlineStr">
+        <is>
+          <t>Priority</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="inlineStr">
-        <is>
-          <t>Technical</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>Weekly review</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>Weekly</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>Tech Lead</t>
-        </is>
-      </c>
-      <c r="E4" s="8" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Data Scientists</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Analytics</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E4" s="10" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>Mitigation</t>
-        </is>
-      </c>
-      <c r="G4" s="8" t="inlineStr">
-        <is>
-          <t>Focus on integration risks</t>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>Manual processes</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>AI/ML automation</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I4" s="11" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>Dr. Alex Rodriguez</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>Advanced training</t>
+        </is>
+      </c>
+      <c r="L4" s="10" t="inlineStr">
+        <is>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Financial</t>
-        </is>
-      </c>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>Monthly review</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Business Analysts</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Traditional analysis</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>AI-powered insights</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="F5" s="8" t="inlineStr">
-        <is>
-          <t>Transfer</t>
-        </is>
-      </c>
-      <c r="G5" s="8" t="inlineStr">
-        <is>
-          <t>Budget contingency</t>
+      <c r="I5" s="12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Lisa Wang</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Process training</t>
+        </is>
+      </c>
+      <c r="L5" s="10" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>IT Operations</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E6" s="12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Legacy systems</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Cloud-native platform</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I6" s="12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Chris Wilson</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Technical training</t>
+        </is>
+      </c>
+      <c r="L6" s="12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>End Users</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E7" s="12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Current systems</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>New AI interface</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I7" s="10" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Robert Taylor</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>User training</t>
+        </is>
+      </c>
+      <c r="L7" s="10" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Executive</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>Traditional decisions</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>Data-driven decisions</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I8" s="11" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>Executive briefings</t>
+        </is>
+      </c>
+      <c r="L8" s="13" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>Finance Team</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="E9" s="12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>Manual reporting</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>Automated analytics</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I9" s="12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>CFO</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>Process training</t>
+        </is>
+      </c>
+      <c r="L9" s="12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>HR Team</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Human Resources</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="E10" s="11" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>Current processes</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>Enhanced analytics</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I10" s="11" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>CHRO</t>
+        </is>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>Basic training</t>
+        </is>
+      </c>
+      <c r="L10" s="11" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>Sales Team</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>150</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E11" s="12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>CRM system</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>AI-enhanced CRM</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I11" s="10" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>Sales Director</t>
+        </is>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>Sales training</t>
+        </is>
+      </c>
+      <c r="L11" s="10" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>Customer Service</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>Manual support</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>AI-assisted support</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J12" s="5" t="inlineStr">
+        <is>
+          <t>Support Manager</t>
+        </is>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>Intensive training</t>
+        </is>
+      </c>
+      <c r="L12" s="10" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>Quality Assurance</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="E13" s="12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>Manual testing</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>AI-powered testing</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I13" s="12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J13" s="5" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>QA training</t>
+        </is>
+      </c>
+      <c r="L13" s="12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>Compliance Team</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Legal</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="E14" s="12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>Manual compliance</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="inlineStr">
+        <is>
+          <t>Automated monitoring</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I14" s="12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>Compliance Officer</t>
+        </is>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>Compliance training</t>
+        </is>
+      </c>
+      <c r="L14" s="12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>External Partners</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E15" s="11" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>Current interfaces</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>API integration</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I15" s="12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>Partnership Manager</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>Partner enablement</t>
+        </is>
+      </c>
+      <c r="L15" s="11" t="inlineStr">
+        <is>
+          <t>Low</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
+  <dataValidations count="3">
+    <dataValidation sqref="E4:E15" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"Low,Medium,High,Critical"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H4:H15" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"Low,Medium,High"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I4:I15" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"Low,Medium,High"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>CHANGE MANAGEMENT ACTIVITIES</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>Activity ID</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Activity Name</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>ADKAR Element</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>Target Audience</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="G3" s="9" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="I3" s="9" t="inlineStr">
+        <is>
+          <t>Completion %</t>
+        </is>
+      </c>
+      <c r="J3" s="9" t="inlineStr">
+        <is>
+          <t>Budget</t>
+        </is>
+      </c>
+      <c r="K3" s="9" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>CM-001</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Stakeholder Analysis</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Awareness</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>All Stakeholders</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>Mark Thompson</t>
+        </is>
+      </c>
+      <c r="H4" s="11" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I4" s="14" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>$5,000</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>Baseline assessment</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>CM-002</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Communication Strategy</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Awareness</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>All Stakeholders</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Communications Lead</t>
+        </is>
+      </c>
+      <c r="H5" s="11" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I5" s="14" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>$8,000</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Multi-channel approach</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>CM-003</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Executive Sponsorship</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Awareness</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Leadership</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="H6" s="12" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="I6" s="15" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>$10,000</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Ongoing leadership</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>CM-004</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Change Champion Network</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Desire</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Champions</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Mark Thompson</t>
+        </is>
+      </c>
+      <c r="H7" s="12" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="I7" s="15" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>$15,000</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>50 champions identified</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>CM-005</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Resistance Management</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Desire</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>High Resistance Groups</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>Change Team</t>
+        </is>
+      </c>
+      <c r="H8" s="16" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="I8" s="17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>$12,000</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>Targeted interventions</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>CM-006</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Training Needs Analysis</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>Knowledge</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>All Users</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>Training Manager</t>
+        </is>
+      </c>
+      <c r="H9" s="12" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="I9" s="15" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>$8,000</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>Skills gap assessment</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>CM-007</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Training Program Development</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>Knowledge</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>All Users</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>Training Team</t>
+        </is>
+      </c>
+      <c r="H10" s="16" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="I10" s="17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>$25,000</t>
+        </is>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>Multi-modal training</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>CM-008</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Training Delivery</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>Knowledge</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>All Users</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>Training Team</t>
+        </is>
+      </c>
+      <c r="H11" s="16" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="I11" s="17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>$35,000</t>
+        </is>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>Phased rollout</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>CM-009</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>Coaching and Support</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Ability</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>End Users</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>2026-03-31</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>Support Team</t>
+        </is>
+      </c>
+      <c r="H12" s="16" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="I12" s="17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J12" s="5" t="inlineStr">
+        <is>
+          <t>$20,000</t>
+        </is>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>On-the-job support</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>CM-010</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Performance Monitoring</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>Reinforcement</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>All Users</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>2026-06-30</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>Analytics Team</t>
+        </is>
+      </c>
+      <c r="H13" s="16" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="I13" s="17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J13" s="5" t="inlineStr">
+        <is>
+          <t>$10,000</t>
+        </is>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>Adoption metrics</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>CM-011</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Recognition Program</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Reinforcement</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Early Adopters</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>2026-06-30</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="inlineStr">
+        <is>
+          <t>HR Team</t>
+        </is>
+      </c>
+      <c r="H14" s="16" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="I14" s="17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>$15,000</t>
+        </is>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>Incentive program</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>CM-012</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Continuous Improvement</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>Reinforcement</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>All Stakeholders</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>2026-12-31</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>Change Team</t>
+        </is>
+      </c>
+      <c r="H15" s="16" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="I15" s="17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>$12,000</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>Feedback integration</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation sqref="H4:H15" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"Planned,In Progress,Completed,On Hold,Cancelled"</formula1>
+    </dataValidation>
+    <dataValidation sqref="C4:C15" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"Awareness,Desire,Knowledge,Ability,Reinforcement"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>